--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>ADAM WALID MOHAMMED AWEDA</x:t>
   </x:si>
   <x:si>
-    <x:t>1240030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAwab Tamer Zakaria</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240302</x:t>
   </x:si>
   <x:si>
@@ -166,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -368,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -791,7 +773,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.9723069792</x:v>
+        <x:v>45907.6649218403</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -823,7 +805,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6649218403</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -855,7 +837,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -887,7 +869,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -919,7 +901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6698167824</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -951,7 +933,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -983,7 +965,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1015,7 +997,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1047,7 +1029,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1079,7 +1061,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1111,7 +1093,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1143,7 +1125,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1175,7 +1157,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1207,7 +1189,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1239,7 +1221,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9890270486</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1271,7 +1253,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1303,7 +1285,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1335,7 +1317,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1367,7 +1349,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1399,7 +1381,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1427,11 +1409,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1454,16 +1434,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6984979977</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1480,68 +1460,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s"/>
-      <x:c r="E25" s="3">
-        <x:v>45907.4155481482</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45907.6984979977</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Tarek Abdelfattah Hassan Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندى أحمد محمد عبد الحليم السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nada Ahmad Mohamad AbdelHalim</x:t>
   </x:si>
   <x:si>
     <x:t>1230309</x:t>
@@ -350,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1377,11 +1368,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1404,14 +1393,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6984979977</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1428,38 +1419,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.6984979977</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -123,15 +123,6 @@
     <x:t>Ali Mohamed Ali Soliman Aitah</x:t>
   </x:si>
   <x:si>
-    <x:t>1240116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو صبري عبداللطيف ابراهيم طه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amr sabry abdullatif ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230162</x:t>
   </x:si>
   <x:si>
@@ -157,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -1052,7 +1052,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1084,7 +1084,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1116,7 +1116,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1148,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45921.5947582986</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -341,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1148,7 +1139,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.5947582986</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1308,7 +1299,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1336,11 +1327,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1363,14 +1352,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6984979977</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1387,38 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.6984979977</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1139,7 +1148,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45923.4560842593</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1171,7 +1180,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1203,7 +1212,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1235,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1327,9 +1336,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1352,16 +1363,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6984979977</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.6984979977</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -341,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1148,7 +1139,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45923.4560842593</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1308,7 +1299,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1336,11 +1327,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1363,14 +1352,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6984979977</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1387,38 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.6984979977</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Maram Ashraf AlSayed Hamza  Al-Ashry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان أحمد حسن سعيد معوض أبو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Ahmed Hassan Said Moawad Abuelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240147</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1235,7 +1244,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1327,9 +1336,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1352,16 +1363,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.6984979977</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.6984979977</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,13 +78,13 @@
     <x:t>Rasha Hamdy Ahmed El Desouky</x:t>
   </x:si>
   <x:si>
-    <x:t>1240073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
+    <x:t>2240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد تامر محمد منصور السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad</x:t>
   </x:si>
   <x:si>
     <x:t>1230047</x:t>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Saif waleed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن حاتم مغاورى عوض عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abdelrahman Hatem Maghawry awad Omran </x:t>
   </x:si>
   <x:si>
     <x:t>1220014</x:t>
@@ -341,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -892,7 +901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45927.3048171644</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45927.4195673264</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -988,7 +997,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1020,7 +1029,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1052,7 +1061,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1340,7 +1349,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1368,9 +1377,11 @@
       <x:c r="C22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1393,16 +1404,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.6984979977</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1419,6 +1428,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>هبه الله محمد شعيب السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ولى الدين احمد حسين محمود عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1240167</x:t>
@@ -350,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1443,7 +1452,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4977678588</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1460,6 +1469,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,42 @@
     <x:t>ADAM WALID MOHAMMED AWEDA</x:t>
   </x:si>
   <x:si>
+    <x:t>1240030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAwab Tamer Zakaria</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم يحيى محمد فرج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Yahia Mohamed Farag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة وليد عبد المنعم امين محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jomana Waleed Abdel Moneim Amin Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسن محى حسن عبدالمجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240302</x:t>
   </x:si>
   <x:si>
@@ -157,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Mohamed Negm El Din Hamdy Afify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -359,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -782,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6649218403</x:v>
+        <x:v>45928.5662424421</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -814,7 +859,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45928.6049809028</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -846,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45928.6047245023</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -878,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45928.4149452894</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -910,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.3048171644</x:v>
+        <x:v>45907.6649218403</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -942,7 +987,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -974,7 +1019,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4195673264</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1006,7 +1051,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1038,7 +1083,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45927.3048171644</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1070,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1102,7 +1147,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45927.4195673264</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1134,7 +1179,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1166,7 +1211,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1198,7 +1243,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1230,7 +1275,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1262,7 +1307,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1294,7 +1339,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1326,7 +1371,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45928.4966348727</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1358,7 +1403,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1390,7 +1435,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1418,9 +1463,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1443,16 +1490,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1475,16 +1522,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4977678588</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1548,164 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.4151871875</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6751492708</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s"/>
+      <x:c r="E28" s="3">
+        <x:v>45907.4155481482</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45927.9046034722</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Zyad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230047</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1115,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45928.6991247685</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4195673264</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45927.4195673264</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1275,7 +1284,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1307,7 +1316,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1339,7 +1348,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1371,7 +1380,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.4966348727</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1403,7 +1412,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45928.4966348727</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1435,7 +1444,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1467,7 +1476,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1499,7 +1508,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1531,7 +1540,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1563,7 +1572,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1595,7 +1604,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1623,9 +1632,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,16 +1659,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4977678588</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1240285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد مدحت محمد نبيل كامل عمارة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED MEDHAT MOHAMED NABIL KAMEL EMARA</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220109</x:t>
   </x:si>
   <x:si>
@@ -139,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Saif waleed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شادى على حسين محمد شرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chadi ali cherri</x:t>
   </x:si>
   <x:si>
     <x:t>4240024</x:t>
@@ -413,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -804,7 +822,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.665227581</x:v>
+        <x:v>45929.5455545949</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -836,7 +854,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45928.5662424421</x:v>
+        <x:v>45907.665227581</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -868,7 +886,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45928.6049809028</x:v>
+        <x:v>45928.5662424421</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -900,7 +918,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.6047245023</x:v>
+        <x:v>45928.6049809028</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -932,7 +950,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.4149452894</x:v>
+        <x:v>45928.6047245023</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -964,7 +982,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6649218403</x:v>
+        <x:v>45928.4149452894</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -996,7 +1014,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.6649218403</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1028,7 +1046,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1060,7 +1078,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1110,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.3048171644</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1142,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45928.6991247685</x:v>
+        <x:v>45927.3048171644</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1156,7 +1174,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45928.6991247685</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1188,7 +1206,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4195673264</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1220,7 +1238,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45929.511931331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1252,7 +1270,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45927.4195673264</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1284,7 +1302,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1316,7 +1334,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1348,7 +1366,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1380,7 +1398,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1412,7 +1430,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.4966348727</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1444,7 +1462,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1476,7 +1494,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45928.4966348727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1508,7 +1526,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1540,7 +1558,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1572,7 +1590,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1604,7 +1622,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1636,7 +1654,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1664,9 +1682,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,16 +1709,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1721,16 +1741,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45927.4977678588</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1765,70 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45927.9046034722</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Tasneem Yahia Mohamed Farag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2230016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة جمال شريف فاضل</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230169</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -950,7 +959,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.6047245023</x:v>
+        <x:v>45931.3040679745</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -982,7 +991,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45928.4149452894</x:v>
+        <x:v>45928.6047245023</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6649218403</x:v>
+        <x:v>45928.4149452894</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.6649218403</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.3048171644</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45928.6991247685</x:v>
+        <x:v>45927.3048171644</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45928.6991247685</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45929.511931331</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4195673264</x:v>
+        <x:v>45929.511931331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45927.4195673264</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1398,7 +1407,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1430,7 +1439,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1462,7 +1471,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1494,7 +1503,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.4966348727</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1526,7 +1535,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45928.4966348727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1558,7 +1567,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1590,7 +1599,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1622,7 +1631,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1654,7 +1663,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1686,7 +1695,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1718,7 +1727,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1746,9 +1755,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,16 +1782,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4977678588</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240093</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد حبشى توفيق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALI MOHAMED HABASHY TAWFIQ</x:t>
   </x:si>
   <x:si>
     <x:t>1240335</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1375,7 +1366,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1407,7 +1398,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1439,7 +1430,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1471,7 +1462,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1503,7 +1494,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45928.4966348727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1535,7 +1526,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.4966348727</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1567,7 +1558,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1599,7 +1590,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1631,7 +1622,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1663,7 +1654,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1695,7 +1686,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1727,7 +1718,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1755,11 +1746,9 @@
       <x:c r="C31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1782,14 +1771,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45927.4977678588</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45927.4977678588</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Jomana Waleed Abdel Moneim Amin Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسن محى حسن عبدالمجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240302</x:t>
@@ -431,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1014,7 +1005,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.4149452894</x:v>
+        <x:v>45907.6649218403</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1046,7 +1037,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6649218403</x:v>
+        <x:v>45909.8126204861</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1078,7 +1069,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45927.3048171644</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.3048171644</x:v>
+        <x:v>45928.6991247685</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45928.6991247685</x:v>
+        <x:v>45907.6648051273</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648051273</x:v>
+        <x:v>45929.511931331</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45929.511931331</x:v>
+        <x:v>45927.4195673264</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4195673264</x:v>
+        <x:v>45907.4147183218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4147183218</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1366,7 +1357,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1398,7 +1389,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1430,7 +1421,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1462,7 +1453,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45928.4966348727</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1494,7 +1485,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.4966348727</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1526,7 +1517,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1558,7 +1549,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1590,7 +1581,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1622,7 +1613,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1654,7 +1645,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1686,7 +1677,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1714,11 +1705,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1741,14 +1730,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45927.4977678588</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1797,38 +1788,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45927.4977678588</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1517,7 +1526,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45934.8543677431</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1549,7 +1558,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1581,7 +1590,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1613,7 +1622,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1645,7 +1654,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1677,7 +1686,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1705,9 +1714,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,16 +1741,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.4977678588</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1797,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على حسن على حسن على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Hassan Ali Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240335</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1334,7 +1343,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45937.4584574884</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1398,7 +1407,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4145210301</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1430,7 +1439,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.5324362616</x:v>
+        <x:v>45907.4145210301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1462,7 +1471,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.4966348727</x:v>
+        <x:v>45907.5324362616</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1494,7 +1503,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.989334375</x:v>
+        <x:v>45928.4966348727</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1526,7 +1535,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45934.8543677431</x:v>
+        <x:v>45914.989334375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1558,7 +1567,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45934.8543677431</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1590,7 +1599,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1622,7 +1631,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1654,7 +1663,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1686,7 +1695,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1718,7 +1727,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1746,9 +1755,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,16 +1782,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4977678588</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45927.4977678588</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -183,7 +183,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240335</x:t>
@@ -207,10 +207,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1220137</x:t>

--- a/downloaded_files/GENS110_Lecture-35033.xlsx
+++ b/downloaded_files/GENS110_Lecture-35033.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240140</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1567,7 +1558,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45934.8543677431</x:v>
+        <x:v>45907.676606331</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1599,7 +1590,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.676606331</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1631,7 +1622,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45925.4910177894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1663,7 +1654,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45925.4910177894</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1695,7 +1686,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.4151871875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1727,7 +1718,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4151871875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1755,11 +1746,9 @@
       <x:c r="C31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1782,14 +1771,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45927.9046034722</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.9046034722</x:v>
+        <x:v>45927.4977678588</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45927.4977678588</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
